--- a/Copy of cooking.xlsx
+++ b/Copy of cooking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e06ea32a6a887821/Documents/Cooking/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{016DF794-37AC-43FD-B222-5CF99E324BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFD52C3B-E800-417B-81A8-EE51B815433E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4261A817-5366-4F68-B6E1-26079FE2C9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9768750C-A25B-41E5-8B7B-84E2D6DCA02B}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>Ingredients</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of servings </t>
-  </si>
-  <si>
     <t>Mini Pancake bites</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>250g lean mince (chicken / turkey / beef), 1 egg, 2 tbsp breadcrumbs, 2 tbsp soy sauce, 1 tbsp honey, 1 tbsp garlic, 1 tbsp ginger, 1 tbsp cornflour, 200g broccoli, 150g rice (uncooked)</t>
+  </si>
+  <si>
+    <t>Servings</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -521,21 +521,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -543,10 +543,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -554,10 +554,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -565,10 +565,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -587,21 +587,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -609,21 +609,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -631,10 +631,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -642,10 +642,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -664,10 +664,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -675,10 +675,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -686,10 +686,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
       </c>
       <c r="C16">
         <v>2</v>
